--- a/public/input.xlsx
+++ b/public/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB1E7E-096C-40A2-95E0-ED7AF8BC0439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DABB3F4-A4D4-4339-B16C-543482A02DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="287">
   <si>
     <t>SKU</t>
   </si>
@@ -914,6 +914,15 @@
   </si>
   <si>
     <t>SEA11590000WHITE</t>
+  </si>
+  <si>
+    <t>SEA11590000WHITEdsa</t>
+  </si>
+  <si>
+    <t>НОВЫЙ _СКЛАД</t>
+  </si>
+  <si>
+    <t>Новый товар</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1307,7 @@
   <dimension ref="A4:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1448,6 +1457,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>830197395</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
@@ -1461,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09E060-FC82-544F-98E5-523EFAA17355}">
   <dimension ref="A3:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1671,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBFE68D-2FF0-0544-A1E0-D6C18625A2FA}">
   <dimension ref="A3:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/public/input.xlsx
+++ b/public/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DABB3F4-A4D4-4339-B16C-543482A02DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D551A0-6054-4442-9661-68660CB887F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="290">
   <si>
     <t>SKU</t>
   </si>
@@ -923,6 +923,15 @@
   </si>
   <si>
     <t>Новый товар</t>
+  </si>
+  <si>
+    <t>ТЕСТ_НОВЫЙ _СКЛАД</t>
+  </si>
+  <si>
+    <t>SEA11590000BLUE</t>
+  </si>
+  <si>
+    <t>Еще товар</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1316,7 @@
   <dimension ref="A4:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1481,7 +1490,27 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
+      <c r="A11">
+        <v>830197395</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G586" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -1493,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09E060-FC82-544F-98E5-523EFAA17355}">
   <dimension ref="A3:K13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
